--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
     <sheet name="instalar visual studio" sheetId="4" r:id="rId2"/>
     <sheet name="metodovacio" sheetId="5" r:id="rId3"/>
     <sheet name="metododevuelve" sheetId="6" r:id="rId4"/>
-    <sheet name="lenguaje tecnico" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId5"/>
+    <sheet name="lenguaje tecnico" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="165">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1163,13 +1164,61 @@
   </si>
   <si>
     <t>Los frameworks proporcionan una estructura completa para construir aplicaciones</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>n2</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>if(n1==0)</t>
+  </si>
+  <si>
+    <t>if(n1 != 0 &amp;&amp; n2 != 0)</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>operacion2</t>
+  </si>
+  <si>
+    <t>operación1</t>
+  </si>
+  <si>
+    <t>resultado</t>
+  </si>
+  <si>
+    <t>dividir</t>
+  </si>
+  <si>
+    <t>multiplicar</t>
+  </si>
+  <si>
+    <t>igual</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>5x</t>
+  </si>
+  <si>
+    <t>if( operación2 == "igual")</t>
+  </si>
+  <si>
+    <t>30/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,6 +1359,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1477,7 +1533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1537,6 +1593,13 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1813,6 +1876,504 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83527</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>39567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>354623</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>120163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607527" y="1182567"/>
+          <a:ext cx="271096" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>397119</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>118698</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1921119" y="1181102"/>
+          <a:ext cx="271096" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732692</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2256692" y="1172308"/>
+          <a:ext cx="271096" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>313592</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584688</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2599592" y="1185496"/>
+          <a:ext cx="271096" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>64476</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>79131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1588476" y="175846"/>
+          <a:ext cx="1474177" cy="474785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>312126</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>33703</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>583222</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2598126" y="1557703"/>
+          <a:ext cx="271096" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>120161</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>432288</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618392" y="2230313"/>
+          <a:ext cx="312127" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>ac</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>69581</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>30168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731935</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>110764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="568822" y="792168"/>
+          <a:ext cx="662354" cy="271096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3436,7 +3997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="I8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
@@ -3645,6 +4206,230 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F2:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:14">
+      <c r="F2" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="6:14">
+      <c r="F3" s="34">
+        <v>5</v>
+      </c>
+      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="6:14">
+      <c r="F4" s="35">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35">
+        <v>6</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="35">
+        <f>F4*G4</f>
+        <v>30</v>
+      </c>
+      <c r="M4" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="6:14">
+      <c r="F5" s="35">
+        <v>30</v>
+      </c>
+      <c r="G5" s="35">
+        <v>10</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="35">
+        <f>F5/G5</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:14">
+      <c r="F6" s="35">
+        <v>0</v>
+      </c>
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+    </row>
+    <row r="7" spans="6:14">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+    </row>
+    <row r="8" spans="6:14">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="6:14">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+    </row>
+    <row r="10" spans="6:14">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+    </row>
+    <row r="11" spans="6:14">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+    </row>
+    <row r="12" spans="6:14">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
     <sheet name="instalar visual studio" sheetId="4" r:id="rId2"/>
     <sheet name="metodovacio" sheetId="5" r:id="rId3"/>
     <sheet name="metododevuelve" sheetId="6" r:id="rId4"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId5"/>
+    <sheet name="calculadora" sheetId="8" r:id="rId5"/>
     <sheet name="lenguaje tecnico" sheetId="7" r:id="rId6"/>
+    <sheet name="instanciar clases" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1212,13 +1213,162 @@
   </si>
   <si>
     <t>30/</t>
+  </si>
+  <si>
+    <t>MessageBox.Show("hola darwin");</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cedula</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {  get; set; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public void </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Saludo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <t>asignar valor</t>
+  </si>
+  <si>
+    <t>tipo de dato</t>
+  </si>
+  <si>
+    <t>nombre variable</t>
+  </si>
+  <si>
+    <t>declaracion de variables</t>
+  </si>
+  <si>
+    <t>inicializacion de variable</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>"0918724530"</t>
+  </si>
+  <si>
+    <t>clase1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gato</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>new Perro()</t>
+  </si>
+  <si>
+    <t>new Gato()</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>clase2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,8 +1520,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1417,6 +1596,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1600,6 +1797,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4208,8 +4425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4486,4 +4703,219 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:Y26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="31"/>
+    <col min="2" max="3" width="6.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12" style="31" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="38" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="31" customWidth="1"/>
+    <col min="8" max="13" width="6.5703125" style="31" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="2.7109375" style="41" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="31" customWidth="1"/>
+    <col min="17" max="26" width="4.42578125" style="31" customWidth="1"/>
+    <col min="27" max="16384" width="11.42578125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:25">
+      <c r="Q1" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="4:25">
+      <c r="D2" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="4:25">
+      <c r="D3" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="R3" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="4:25">
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="4:25" ht="18.75">
+      <c r="D5" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="T5" s="40"/>
+    </row>
+    <row r="6" spans="4:25">
+      <c r="R6" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="7" spans="4:25">
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+    </row>
+    <row r="8" spans="4:25" ht="18.75">
+      <c r="D8" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="4:25">
+      <c r="R9" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="40"/>
+    </row>
+    <row r="10" spans="4:25" ht="18.75">
+      <c r="D10" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="40"/>
+      <c r="X10" s="40"/>
+      <c r="Y10" s="40"/>
+    </row>
+    <row r="11" spans="4:25">
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="40"/>
+      <c r="X11" s="40"/>
+      <c r="Y11" s="40"/>
+    </row>
+    <row r="12" spans="4:25">
+      <c r="Q12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40"/>
+    </row>
+    <row r="13" spans="4:25">
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="40"/>
+      <c r="Y13" s="40"/>
+    </row>
+    <row r="14" spans="4:25">
+      <c r="Q14" s="38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="4:25">
+      <c r="R16" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21">
+      <c r="T17" s="40"/>
+    </row>
+    <row r="18" spans="17:21">
+      <c r="T18" s="40"/>
+    </row>
+    <row r="19" spans="17:21">
+      <c r="R19" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+    </row>
+    <row r="20" spans="17:21">
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
+    </row>
+    <row r="21" spans="17:21">
+      <c r="R21" s="40"/>
+      <c r="S21" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="17:21">
+      <c r="R22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="40"/>
+    </row>
+    <row r="23" spans="17:21">
+      <c r="U23" s="40"/>
+    </row>
+    <row r="24" spans="17:21">
+      <c r="U24" s="40"/>
+    </row>
+    <row r="25" spans="17:21">
+      <c r="Q25" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" s="40"/>
+    </row>
+    <row r="26" spans="17:21">
+      <c r="U26" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="185">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1362,6 +1362,9 @@
   </si>
   <si>
     <t>clase2</t>
+  </si>
+  <si>
+    <t>oso</t>
   </si>
 </sst>
 </file>
@@ -1801,9 +1804,6 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1815,6 +1815,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4710,7 +4713,7 @@
   <dimension ref="D1:Y26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4735,24 +4738,24 @@
       </c>
     </row>
     <row r="2" spans="4:25">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="46" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="45" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" spans="4:25">
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="43" t="s">
         <v>168</v>
       </c>
       <c r="R3" s="39" t="s">
@@ -4769,10 +4772,10 @@
       <c r="E5" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>175</v>
       </c>
       <c r="T5" s="40"/>
@@ -4796,10 +4799,10 @@
       <c r="E8" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>181</v>
       </c>
       <c r="R8" s="40"/>
@@ -4820,10 +4823,10 @@
       <c r="E10" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>180</v>
       </c>
       <c r="U10" s="40"/>
@@ -4850,6 +4853,9 @@
       <c r="Y12" s="40"/>
     </row>
     <row r="13" spans="4:25">
+      <c r="D13" s="31" t="s">
+        <v>184</v>
+      </c>
       <c r="U13" s="40"/>
       <c r="V13" s="40"/>
       <c r="W13" s="40"/>

--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="calculadora" sheetId="8" r:id="rId5"/>
     <sheet name="lenguaje tecnico" sheetId="7" r:id="rId6"/>
     <sheet name="instanciar clases" sheetId="9" r:id="rId7"/>
+    <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="203">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1365,6 +1366,60 @@
   </si>
   <si>
     <t>oso</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>nombre tabla</t>
+  </si>
+  <si>
+    <t>canmpos</t>
+  </si>
+  <si>
+    <t>AnimaID</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>perro</t>
+  </si>
+  <si>
+    <t>cafu</t>
+  </si>
+  <si>
+    <t>negro</t>
+  </si>
+  <si>
+    <t>risa</t>
+  </si>
+  <si>
+    <t>amarillo</t>
+  </si>
+  <si>
+    <t>gato</t>
+  </si>
+  <si>
+    <t>lala</t>
+  </si>
+  <si>
+    <t>blanca</t>
+  </si>
+  <si>
+    <t>loro</t>
+  </si>
+  <si>
+    <t>rosendo</t>
+  </si>
+  <si>
+    <t>verde</t>
+  </si>
+  <si>
+    <t>peligri</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1608,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1617,6 +1672,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1733,7 +1806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1820,6 +1893,12 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2635,6 +2714,316 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>375557</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="375557" y="190500"/>
+          <a:ext cx="881743" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>560614</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322614" y="174171"/>
+          <a:ext cx="881743" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>631371</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>751114</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2291442" y="168729"/>
+          <a:ext cx="881743" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>636814</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>756557</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4582885" y="179614"/>
+          <a:ext cx="881743" cy="206828"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Agregar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>484415</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>179615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Marco 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3488871" y="212272"/>
+          <a:ext cx="179615" cy="157843"/>
+        </a:xfrm>
+        <a:prstGeom prst="frame">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4712,7 +5101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:Y26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4924,4 +5313,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="50"/>
+    <col min="2" max="2" width="13.42578125" style="50" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="50"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:7">
+      <c r="B5" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="C7" s="54">
+        <v>1</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="C8" s="53">
+        <v>2</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" s="53">
+        <v>3</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="C10" s="53">
+        <v>4</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="C11" s="53"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="C12" s="53"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="calculadora" sheetId="8" r:id="rId5"/>
     <sheet name="lenguaje tecnico" sheetId="7" r:id="rId6"/>
     <sheet name="instanciar clases" sheetId="9" r:id="rId7"/>
-    <sheet name="Hoja1" sheetId="10" r:id="rId8"/>
+    <sheet name="clases modelo" sheetId="10" r:id="rId8"/>
+    <sheet name="games" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="245">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1420,6 +1421,718 @@
   </si>
   <si>
     <t>peligri</t>
+  </si>
+  <si>
+    <t>que es:</t>
+  </si>
+  <si>
+    <t>clases generica List (List&lt;T&gt;)</t>
+  </si>
+  <si>
+    <t>metodo agregar</t>
+  </si>
+  <si>
+    <t>Agregar elementos: Utiliza el método Add(T item) para agregar un elemento al final de la lista.</t>
+  </si>
+  <si>
+    <t>cceder a elementos por índice (por ejemplo, miLista[0]).</t>
+  </si>
+  <si>
+    <t>Usa métodos como Remove(T item) o RemoveAt(int index) para eliminar elementos.</t>
+  </si>
+  <si>
+    <t>metodo acceder a un elemento de la lista</t>
+  </si>
+  <si>
+    <t>metodo eliminar elementos de la lista</t>
+  </si>
+  <si>
+    <t>método Count devuelve la cantidad de elementos en la lista.</t>
+  </si>
+  <si>
+    <t>Contar elementos</t>
+  </si>
+  <si>
+    <t>Puedes ordenar la lista utilizando Sort()</t>
+  </si>
+  <si>
+    <t>Ordenar elementos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numeros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>clase generica para colección de objetos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numeros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>lista de enteros</t>
+  </si>
+  <si>
+    <t>lista de textos</t>
+  </si>
+  <si>
+    <t>lista de objetos (clase burro)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numeros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>ejemplo</t>
+  </si>
+  <si>
+    <t>falta un ;</t>
+  </si>
+  <si>
+    <t>estas dividiendo un numero para 0</t>
+  </si>
+  <si>
+    <t>depuracion de codigo fuentes ( lenguaje de programacion )</t>
+  </si>
+  <si>
+    <t>corrige si no hay errores de programacion o sintaxis del lenguaje de programacion</t>
+  </si>
+  <si>
+    <t>compilacion</t>
+  </si>
+  <si>
+    <t>transforma el codigo fuente en codigo de maquina</t>
+  </si>
+  <si>
+    <t>c# =&gt; bits (011001100)</t>
+  </si>
+  <si>
+    <t>java =&gt; bits (011001100)</t>
+  </si>
+  <si>
+    <t>depuracion y compilacion</t>
+  </si>
+  <si>
+    <t>variables de tipo var</t>
+  </si>
+  <si>
+    <t>ClaseDia7 clase7 = new ClaseDia7();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Empleado emp = new Empleado();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var todo = new ClaseDia7();</t>
+  </si>
+  <si>
+    <t>no tiene un tipo de dato definido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el tipo de dato se obtiene a partir de la asignacion con el signo  = </t>
+  </si>
+  <si>
+    <t>foreach</t>
+  </si>
+  <si>
+    <t>recorre los elementos de una lista</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No necesitas preocuparte por los </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>índices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o la </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">longitud </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de la colección; el foreach se encarga de eso automáticamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> foreach (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listaNumeros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> listaN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>umeros</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                Console.WriteLine(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>numero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.typing.com/es/student/game/ztype</t>
   </si>
 </sst>
 </file>
@@ -1806,7 +2519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1890,15 +2603,20 @@
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2714,316 +3432,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>375557</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>16328</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="375557" y="190500"/>
-          <a:ext cx="881743" cy="206828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>560614</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1322614" y="174171"/>
-          <a:ext cx="881743" cy="206828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>631371</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>168729</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>751114</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2291442" y="168729"/>
-          <a:ext cx="881743" cy="206828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FFFF00"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>636814</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>756557</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>5442</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectángulo 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4582885" y="179614"/>
-          <a:ext cx="881743" cy="206828"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Agregar</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>21772</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>484415</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>179615</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Marco 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3488871" y="212272"/>
-          <a:ext cx="179615" cy="157843"/>
-        </a:xfrm>
-        <a:prstGeom prst="frame">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5127,10 +5535,10 @@
       </c>
     </row>
     <row r="2" spans="4:25">
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="42"/>
       <c r="G2" s="45" t="s">
         <v>172</v>
@@ -5317,132 +5725,381 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:G12"/>
+  <dimension ref="A5:S71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="50"/>
-    <col min="2" max="2" width="13.42578125" style="50" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="50"/>
+    <col min="1" max="2" width="3.5703125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="58" customWidth="1"/>
+    <col min="4" max="13" width="3.5703125" style="49" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="49"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:7">
-      <c r="B5" s="50" t="s">
+    <row r="5" spans="1:19">
+      <c r="N5" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="O5" s="49" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="50" t="s">
+    <row r="6" spans="1:19">
+      <c r="N6" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="O6" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="P6" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="Q6" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="R6" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="S6" s="50" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="C7" s="54">
+    <row r="7" spans="1:19">
+      <c r="O7" s="53">
         <v>1</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="P7" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="Q7" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="F7" s="55" t="s">
+      <c r="R7" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="S7" s="54" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="C8" s="53">
+    <row r="8" spans="1:19">
+      <c r="O8" s="52">
         <v>2</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="P8" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="Q8" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="R8" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="S8" s="51" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="C9" s="53">
+    <row r="9" spans="1:19">
+      <c r="O9" s="52">
         <v>3</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="P9" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="Q9" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="R9" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="S9" s="51" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="C10" s="53">
+    <row r="10" spans="1:19">
+      <c r="O10" s="52">
         <v>4</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="P10" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="Q10" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="R10" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="S10" s="51" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="C11" s="53"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12" s="53"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+    <row r="11" spans="1:19">
+      <c r="O11" s="52"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="O12" s="52"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="15" spans="1:19" s="57" customFormat="1">
+      <c r="A15" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="59"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="49" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="C17" s="58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" s="58" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" s="58" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" s="49" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="C25" s="58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" s="58" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="56" customFormat="1">
+      <c r="C29" s="59"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="49" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" s="49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="56" customFormat="1">
+      <c r="A37" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" s="59"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="B39" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="D42" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="B45" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="C46" s="58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" s="49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="56" customFormat="1">
+      <c r="A50" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="59"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="C51" s="58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" s="58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" s="49" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="D55" s="49" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="D57" s="49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="57" customFormat="1">
+      <c r="A59" s="57" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" s="58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="C61" s="58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" s="49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="49" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="49" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="60" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="instanciar clases" sheetId="9" r:id="rId7"/>
     <sheet name="clases modelo" sheetId="10" r:id="rId8"/>
     <sheet name="games" sheetId="11" r:id="rId9"/>
+    <sheet name="sql" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="264">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -1399,9 +1400,6 @@
     <t>risa</t>
   </si>
   <si>
-    <t>amarillo</t>
-  </si>
-  <si>
     <t>gato</t>
   </si>
   <si>
@@ -2133,6 +2131,147 @@
   </si>
   <si>
     <t>https://www.typing.com/es/student/game/ztype</t>
+  </si>
+  <si>
+    <t>SQL SERVER</t>
+  </si>
+  <si>
+    <t>para que sirve una base de datos</t>
+  </si>
+  <si>
+    <t>almacenar informacion</t>
+  </si>
+  <si>
+    <t>motor de  base datos</t>
+  </si>
+  <si>
+    <t>es una herramienta gestionar eficientemente la informacion almacenada</t>
+  </si>
+  <si>
+    <t>crud</t>
+  </si>
+  <si>
+    <t>c: create</t>
+  </si>
+  <si>
+    <t>r: read</t>
+  </si>
+  <si>
+    <t>u: update</t>
+  </si>
+  <si>
+    <t>d: delete</t>
+  </si>
+  <si>
+    <t>el motor de base de datos relacionales oficial de microsoft</t>
+  </si>
+  <si>
+    <t>consultas que realizas a las tablas de la base datos</t>
+  </si>
+  <si>
+    <t>SQL SEVER MANNAGEMENT</t>
+  </si>
+  <si>
+    <t>cuando nos conectamos a una base de datos</t>
+  </si>
+  <si>
+    <t>IP = 192.168.100.50</t>
+  </si>
+  <si>
+    <t>PUERTO = 8080</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>192.168.100.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8080</t>
+    </r>
+  </si>
+  <si>
+    <t>IP DEL SERVIDOR</t>
+  </si>
+  <si>
+    <t>COMO SE ESCRIBE EN SQL SERVER CUANDO VAMOS A INICIAR SESION</t>
+  </si>
+  <si>
+    <r>
+      <t>SERVER NAME:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 192.168.100.50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8080</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISQL</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2609,14 +2748,14 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3432,6 +3571,650 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>232172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>465175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1303735" y="3280172"/>
+          <a:ext cx="3447690" cy="2293559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Llamada con línea 1 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4494610" y="3411141"/>
+          <a:ext cx="2512218" cy="612648"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58590"/>
+            <a:gd name="adj2" fmla="val 130"/>
+            <a:gd name="adj3" fmla="val 112500"/>
+            <a:gd name="adj4" fmla="val -38333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>tipo de servidor: motor de base</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> de datos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>744140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>208358</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>160733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Llamada con línea 1 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5030390" y="3988592"/>
+          <a:ext cx="2512218" cy="1315641"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58590"/>
+            <a:gd name="adj2" fmla="val 130"/>
+            <a:gd name="adj3" fmla="val 46424"/>
+            <a:gd name="adj4" fmla="val -42835"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>server name: esta compuesto por</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DSC-PC:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> nombre o ip (+ puerto) del servidor (pc donde esta instalado sql server)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Barra diagonal: invertida la optenemos presionando alt + 92 = \</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>ISQL: nombre de la instancia de sql (servicio)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>434578</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>660796</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Llamada con línea 1 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10054828" y="3321844"/>
+          <a:ext cx="2512218" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58590"/>
+            <a:gd name="adj2" fmla="val 130"/>
+            <a:gd name="adj3" fmla="val 58924"/>
+            <a:gd name="adj4" fmla="val -11792"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>obtener ip</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> del pc: abrir consola de comando y escribir: ipconfig</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>y la ip esta en ipv4 anddress</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>366542</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>703320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7700792" y="2946797"/>
+          <a:ext cx="1860778" cy="3256360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>172641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>29495</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9688178" y="4363641"/>
+          <a:ext cx="3009567" cy="1142159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>148828</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>565547</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9769078" y="5137547"/>
+          <a:ext cx="1940719" cy="89297"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>706040</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170258</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Llamada con línea 1 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4992290" y="5682852"/>
+          <a:ext cx="2512218" cy="1315641"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 219"/>
+            <a:gd name="adj2" fmla="val 49893"/>
+            <a:gd name="adj3" fmla="val -28236"/>
+            <a:gd name="adj4" fmla="val 49819"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>como averiguar cual es el nombre de la instancia de sql server:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23511</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608865</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>99607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2970308" y="5536405"/>
+          <a:ext cx="1924807" cy="3326202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>80362</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>502293</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>66183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5128612" y="7060407"/>
+          <a:ext cx="5755931" cy="3864276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>148829</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250031</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77391</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Llamada con línea 1 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="148829" y="5212556"/>
+          <a:ext cx="2512218" cy="1913335"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -233"/>
+            <a:gd name="adj2" fmla="val 53448"/>
+            <a:gd name="adj3" fmla="val -50861"/>
+            <a:gd name="adj4" fmla="val 98634"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>forma de iniciar</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> sesion: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>si te conectas localmente con windows casi siempre no es necesario una contraseña</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>si te conectas con autenticacion sql server debes ingresar usuario por defaul "sa" el cual tiene permisos de administrador y una password</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -4510,6 +5293,131 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="4" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="25" customWidth="1"/>
+    <col min="4" max="4" width="4" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4" style="28" customWidth="1"/>
+    <col min="6" max="16" width="4" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="C3" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="C4" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="D5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="C6" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="D7" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="E8" s="28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="F9" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="F10" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="G11" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="F12" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="F13" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="C16" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="63" spans="8:9">
+      <c r="H63" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="8:9">
+      <c r="I64" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="65" spans="8:9">
+      <c r="I65" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="8:9">
+      <c r="I66" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="8:9">
+      <c r="H68" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="8:9">
+      <c r="I70" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -5535,10 +6443,10 @@
       </c>
     </row>
     <row r="2" spans="4:25">
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="55"/>
+      <c r="E2" s="60"/>
       <c r="F2" s="42"/>
       <c r="G2" s="45" t="s">
         <v>172</v>
@@ -5727,14 +6635,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:S71"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="3.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="3.5703125" style="57" customWidth="1"/>
     <col min="4" max="13" width="3.5703125" style="49" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="49"/>
   </cols>
@@ -5764,7 +6672,7 @@
         <v>190</v>
       </c>
       <c r="S6" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -5794,9 +6702,7 @@
       <c r="Q8" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="R8" s="51" t="s">
-        <v>195</v>
-      </c>
+      <c r="R8" s="51"/>
       <c r="S8" s="51" t="s">
         <v>154</v>
       </c>
@@ -5806,13 +6712,13 @@
         <v>3</v>
       </c>
       <c r="P9" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="R9" s="51" t="s">
         <v>197</v>
-      </c>
-      <c r="R9" s="51" t="s">
-        <v>198</v>
       </c>
       <c r="S9" s="51" t="s">
         <v>154</v>
@@ -5823,13 +6729,13 @@
         <v>4</v>
       </c>
       <c r="P10" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q10" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="R10" s="51" t="s">
         <v>200</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>201</v>
       </c>
       <c r="S10" s="51" t="s">
         <v>151</v>
@@ -5849,215 +6755,215 @@
       <c r="R12" s="51"/>
       <c r="S12" s="51"/>
     </row>
-    <row r="15" spans="1:19" s="57" customFormat="1">
-      <c r="A15" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" s="59"/>
+    <row r="15" spans="1:19" s="56" customFormat="1">
+      <c r="A15" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="58"/>
     </row>
     <row r="16" spans="1:19">
       <c r="B16" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="C17" s="58" t="s">
-        <v>216</v>
+      <c r="C17" s="57" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="49" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" s="57" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="C19" s="58" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="C21" s="58" t="s">
-        <v>207</v>
+      <c r="C21" s="57" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="C23" s="58" t="s">
-        <v>208</v>
+      <c r="C23" s="57" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="C25" s="58" t="s">
-        <v>211</v>
+      <c r="C25" s="57" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="C27" s="58" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="56" customFormat="1">
-      <c r="C29" s="59"/>
+      <c r="C27" s="57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="55" customFormat="1">
+      <c r="C29" s="58"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="49" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="B33" s="49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="B35" s="49" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="56" customFormat="1">
-      <c r="A37" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="59"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="55" customFormat="1">
+      <c r="A37" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="58"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="49" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="58" t="s">
-        <v>222</v>
+      <c r="C40" s="57" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="D41" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="D42" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="B45" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="C46" s="58" t="s">
-        <v>222</v>
+      <c r="C46" s="57" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48" s="49" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="56" customFormat="1">
-      <c r="A50" s="57" t="s">
-        <v>232</v>
-      </c>
-      <c r="C50" s="59"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="55" customFormat="1">
+      <c r="A50" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="58"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="57" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="C52" s="57" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="C52" s="58" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="D54" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="D55" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="D57" s="49" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="57" customFormat="1">
-      <c r="A59" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="56" customFormat="1">
+      <c r="A59" s="56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="C60" s="57" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="C60" s="58" t="s">
+    <row r="61" spans="1:4">
+      <c r="C61" s="57" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="C61" s="58" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="4:4">
@@ -6067,7 +6973,7 @@
     </row>
     <row r="70" spans="4:4">
       <c r="D70" s="49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71" spans="4:4">
@@ -6085,15 +6991,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="60" t="s">
-        <v>244</v>
+      <c r="A1" s="59" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="clases modelo" sheetId="10" r:id="rId8"/>
     <sheet name="games" sheetId="11" r:id="rId9"/>
     <sheet name="sql" sheetId="12" r:id="rId10"/>
+    <sheet name="conexion sql" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="290">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -2272,13 +2273,240 @@
       </rPr>
       <t>ISQL</t>
     </r>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Initial Catalog</t>
+  </si>
+  <si>
+    <t>Integrated Security</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>DSC-PC\ISQL</t>
+  </si>
+  <si>
+    <t>db_dsclaboratory</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>son2004200520121</t>
+  </si>
+  <si>
+    <r>
+      <t>Data Source</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DSC-PC\ISQL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initial Catalog</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>db_dsclaboratory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integrated Security</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>son2004200520121</t>
+    </r>
+  </si>
+  <si>
+    <t>CADENA DE CONEXIÓN</t>
+  </si>
+  <si>
+    <t>servicio de calidad al cliente</t>
+  </si>
+  <si>
+    <t>cuanto puedes empezar</t>
+  </si>
+  <si>
+    <t>lo antes posible</t>
+  </si>
+  <si>
+    <t>tiene disponibilidad inmediato</t>
+  </si>
+  <si>
+    <t>porque quieres trabajar con nosotros</t>
+  </si>
+  <si>
+    <t>busco un lugar don pueda crecer profesionalmente</t>
+  </si>
+  <si>
+    <t>con esfuerzo cualquier cosa que me proponga puedo lograrla</t>
+  </si>
+  <si>
+    <t>satisfacion del  clientes</t>
+  </si>
+  <si>
+    <t>solucionar sus  necesidades</t>
+  </si>
+  <si>
+    <t>empatica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de forma: </t>
+  </si>
+  <si>
+    <t>amable</t>
+  </si>
+  <si>
+    <t>conciso</t>
+  </si>
+  <si>
+    <t>autocontrol (tolerante)</t>
+  </si>
+  <si>
+    <t>escuchar (disponibilidad)</t>
+  </si>
+  <si>
+    <t>respetuoso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2454,6 +2682,30 @@
     </font>
     <font>
       <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2658,7 +2910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2756,6 +3008,8 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -5297,7 +5551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="F22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -5415,6 +5669,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="4" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="61" customFormat="1">
+      <c r="A2" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25">
+      <c r="B4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="I11" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="D14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16" s="28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="F17" s="28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="F18" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="F19" s="28" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="F20" s="28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="F21" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/CSHARP1.xlsx
+++ b/CSHARP1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="ejemplos codigo" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,13 @@
     <sheet name="games" sheetId="11" r:id="rId9"/>
     <sheet name="sql" sheetId="12" r:id="rId10"/>
     <sheet name="conexion sql" sheetId="13" r:id="rId11"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId12"/>
+    <sheet name="Hoja2" sheetId="15" r:id="rId13"/>
+    <sheet name="ado" sheetId="16" r:id="rId14"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Hoja2!$D$15:$G$19</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
   <si>
     <t>Este programa calcula la suma de tres números y muestra el resultado por consola.</t>
   </si>
@@ -2500,13 +2506,166 @@
   </si>
   <si>
     <t>respetuoso</t>
+  </si>
+  <si>
+    <t>.NET</t>
+  </si>
+  <si>
+    <t>VISUAL STUDIO</t>
+  </si>
+  <si>
+    <t>entorno de desarrollo integrado (IDE)</t>
+  </si>
+  <si>
+    <t>lenguage de programacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# </t>
+  </si>
+  <si>
+    <t>tipado</t>
+  </si>
+  <si>
+    <t>compilado</t>
+  </si>
+  <si>
+    <t>orientado a objeto</t>
+  </si>
+  <si>
+    <t>tipado ( maneja tipos de datos )</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>int edad = 35</t>
+  </si>
+  <si>
+    <t>edad = 25</t>
+  </si>
+  <si>
+    <t>edad = 35</t>
+  </si>
+  <si>
+    <t>edad = "hola"</t>
+  </si>
+  <si>
+    <t>edad = 45</t>
+  </si>
+  <si>
+    <t>edad = true</t>
+  </si>
+  <si>
+    <t>cerebro es intera</t>
+  </si>
+  <si>
+    <t>cerebro es texto</t>
+  </si>
+  <si>
+    <t>cerebro es booleana</t>
+  </si>
+  <si>
+    <t>no tipado</t>
+  </si>
+  <si>
+    <t>interpretado</t>
+  </si>
+  <si>
+    <t>winform</t>
+  </si>
+  <si>
+    <t>asp.net (web)</t>
+  </si>
+  <si>
+    <t>base de datos</t>
+  </si>
+  <si>
+    <t>SP ( store procedure)</t>
+  </si>
+  <si>
+    <t>framework para acceso a datos</t>
+  </si>
+  <si>
+    <t>ADO.net</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>D = DEFINICION</t>
+  </si>
+  <si>
+    <t>M= MANIPULACION</t>
+  </si>
+  <si>
+    <t>base de dato relacional</t>
+  </si>
+  <si>
+    <t>EmpleadoID</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Hijo</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>HijoID</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sueldo</t>
+  </si>
+  <si>
+    <t>papito</t>
+  </si>
+  <si>
+    <t>scarlet</t>
+  </si>
+  <si>
+    <t>Ricky</t>
+  </si>
+  <si>
+    <t>Contable</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>ciudadID</t>
+  </si>
+  <si>
+    <t>gye</t>
+  </si>
+  <si>
+    <t>qui</t>
+  </si>
+  <si>
+    <t>Quito</t>
+  </si>
+  <si>
+    <t>Guayaquil</t>
+  </si>
+  <si>
+    <t>ContableID</t>
+  </si>
+  <si>
+    <t>0918723453</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2711,8 +2870,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2794,6 +2977,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2910,7 +3105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3005,11 +3200,25 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3017,6 +3226,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4469,6 +4683,1728 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314324" y="171449"/>
+          <a:ext cx="4600575" cy="1962151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600"/>
+            <a:t>.NET</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Disco magnético 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="381000"/>
+          <a:ext cx="1038225" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>sql</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="219075"/>
+          <a:ext cx="1714500" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600"/>
+            <a:t>ado.net</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="809625"/>
+          <a:ext cx="914400" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600"/>
+            <a:t>C#</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058274" y="542925"/>
+          <a:ext cx="3533775" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CREATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> PROCEDURE productoStock(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>@STOCKMAX </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>INT,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>@STOCKMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> INT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AS</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BEGIN;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SELECT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> NOMBRE, STOCK </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>FROM PRODUCTO </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WHERE STOCK &gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> @STOCKMAX AND </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STOCK &lt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>@STOCKMIN </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>END;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="1162048"/>
+          <a:ext cx="5010150" cy="7258052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SolicitoStockProducto( 10, 30);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SolicitoStockProducto( 35, 50);</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Public Void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SolicitoStockProducto</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>( int prmStockMin,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> int prmStockMax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>--------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>COMMAND = cmd1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>---------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tipo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> de comando: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>procedure</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nombre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> del SP:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>productoStock</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Parametros.add(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ParametroStockMin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Parametros.add(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ParametroStockMax</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ejecuta comando y almacenar </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>momentaneamente los datos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SqlDataReader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>cmd1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.SqlExcecuteDataReader();</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-----------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lee los datos registro por registro</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-----------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WHILE(data.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>read()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>){</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Console.Writeline(data["</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NOMBRE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"] + " | " +  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>data["</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>STOCK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"])</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>creacion de parametros</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-------------------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>variable =&gt;ParametroStockMax</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nombre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> parametro:  @STOCKMAX</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tipo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> de dato del parametro: INT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>valor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>prmStockMax</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="ED7D31">
+                  <a:lumMod val="75000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>variable =&gt; ParametroStockMin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nombre</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> parametro:  @STOCKMIN </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>tipo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> de dato del parametro: INT</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>valor</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>prmStockMin</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -5676,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5691,11 +7627,11 @@
     <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="61" customFormat="1">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:10" s="60" customFormat="1">
+      <c r="A2" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="62"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="17.25">
       <c r="B4" s="1" t="s">
@@ -5809,6 +7745,376 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" style="62" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" style="62" customWidth="1"/>
+    <col min="11" max="13" width="3.85546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="5.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21">
+      <c r="B2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="C3" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="D4" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q4" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="U4" s="64" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="C5" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="D6" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="U6" s="64" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="E7" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="E8" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="E9" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="C10" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="D11" s="62" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="D12" s="62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="C13" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="D14" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="E15" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="E16" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="62" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="11.42578125" style="49"/>
+    <col min="4" max="4" width="14.85546875" style="49" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:16">
+      <c r="D5" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="4:16">
+      <c r="O6" s="49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="4:16">
+      <c r="D7" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="H7" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="67" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16">
+      <c r="D8" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" s="65">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="65" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16">
+      <c r="D9" s="69">
+        <v>2</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="69">
+        <v>2</v>
+      </c>
+      <c r="I9" s="65">
+        <v>900</v>
+      </c>
+      <c r="O9" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="P9" s="65" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16">
+      <c r="D13" s="49" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16">
+      <c r="D15" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="F15" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16">
+      <c r="D16" s="65">
+        <v>1</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="65">
+        <v>2</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>330</v>
+      </c>
+      <c r="G17" s="65">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="65">
+        <v>3</v>
+      </c>
+      <c r="E18" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="65">
+        <v>4</v>
+      </c>
+      <c r="E19" s="69">
+        <v>2</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="G19" s="65">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="D15:G19"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6837,10 +9143,10 @@
       </c>
     </row>
     <row r="2" spans="4:25">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="60"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="42"/>
       <c r="G2" s="45" t="s">
         <v>172</v>
